--- a/template/zyrs.xlsx
+++ b/template/zyrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E99CB7-3794-5D4B-8DCB-9ECF70DAB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6F51C-BA1C-E246-9B22-C46399664D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21540" yWindow="6040" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="14400" yWindow="6540" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>来访次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行程安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -583,16 +579,16 @@
     <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26">
+    <row r="1" spans="1:30" ht="26">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -623,9 +619,8 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:30">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -639,67 +634,67 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>8</v>
@@ -708,21 +703,18 @@
         <v>9</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/zyrs.xlsx
+++ b/template/zyrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6F51C-BA1C-E246-9B22-C46399664D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AC441-D8D0-402C-A27E-62CAA4421E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="6540" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -161,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,11 +553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -574,19 +566,19 @@
     <col min="10" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
+    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -620,7 +612,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>

--- a/template/zyrs.xlsx
+++ b/template/zyrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AC441-D8D0-402C-A27E-62CAA4421E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527C571-D12D-43F1-9760-FEEB5697AE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="2295" yWindow="7335" windowWidth="23850" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>姓名</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来访次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +142,14 @@
   </si>
   <si>
     <t>联系人联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来访时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +238,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,36 +555,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="1"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -611,8 +616,9 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,87 +632,90 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/zyrs.xlsx
+++ b/template/zyrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPlace\台胞项目\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527C571-D12D-43F1-9760-FEEB5697AE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CAD9C-3D9E-42C2-ADAD-EBB73F7C8711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="7335" windowWidth="23850" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社会关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,10 @@
   </si>
   <si>
     <t>行程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,34 +680,34 @@
         <v>7</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>9</v>
@@ -719,5 +719,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>